--- a/biology/Zoologie/Faucheria/Faucheria.xlsx
+++ b/biology/Zoologie/Faucheria/Faucheria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Faucheria faucheri
 Faucheria est un genre de crustacés isopodes qui ne comprend qu'une seule espèce (Faucheria faucheri) présente dans les milieux cavernicoles et intersticiels. Décrite initialement comme Cæcosphæroma faucheri (famille des Sphaeromatidae) par Adrien Dollfus et Armand Viré en 1900, elle a été reclassée dans une autre famille (Cirolanidae) par les auteurs en 1905.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Faucheria faucheri est un petit isopode mesurant en moyenne 3,5 mm. C'est le seul Cirolanidae ayant la capacité de volvation, c'est-à-dire de se rouler en boule pour se protéger, se reposer ou dormir.
 </t>
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ne nage par entre deux eaux mais se déplace au fond. Il est anophtalmique, c'est-à-dire qu'il a perdu ses yeux - comme beaucoup d'autres espèces cavernicoles strictes, au cours de l'évolution - et est indifférent à la lumière.
 </t>
